--- a/Readme/스케줄 및 데이터 (1).xlsx
+++ b/Readme/스케줄 및 데이터 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조현준\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectUnity\TeamSummit\Readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D5EB2-67B0-4538-B57B-A24C666FFCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C1B35-481E-42B3-8A61-E2FCEE803E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42075" yWindow="2415" windowWidth="14835" windowHeight="13065" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스케줄" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,14 @@
     <sheet name="차량 스킨" sheetId="10" r:id="rId10"/>
     <sheet name="플레이어 스킨" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -3299,26 +3301,26 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5331,7 +5333,7 @@
   </sheetPr>
   <dimension ref="A1:AO990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <pane xSplit="5" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q17" sqref="Q6:AB17"/>
     </sheetView>
@@ -5348,10 +5350,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A1" s="90"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
@@ -5506,10 +5508,10 @@
       <c r="AO2" s="10"/>
     </row>
     <row r="3" spans="1:41" ht="14.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -5559,8 +5561,8 @@
       <c r="AO3" s="10"/>
     </row>
     <row r="4" spans="1:41" ht="14.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="20" t="s">
         <v>15</v>
       </c>
@@ -5606,8 +5608,8 @@
       <c r="AO4" s="10"/>
     </row>
     <row r="5" spans="1:41" ht="14.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
@@ -5655,8 +5657,8 @@
       <c r="AO5" s="10"/>
     </row>
     <row r="6" spans="1:41" ht="14.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="29" t="s">
         <v>18</v>
       </c>
@@ -5703,8 +5705,8 @@
       <c r="AO6" s="10"/>
     </row>
     <row r="7" spans="1:41" ht="14.25">
-      <c r="A7" s="97"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
@@ -5751,8 +5753,8 @@
       <c r="AO7" s="10"/>
     </row>
     <row r="8" spans="1:41" ht="14.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="28" t="s">
         <v>22</v>
       </c>
@@ -5799,8 +5801,8 @@
       <c r="AO8" s="10"/>
     </row>
     <row r="9" spans="1:41" ht="14.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="29" t="s">
         <v>24</v>
       </c>
@@ -5847,8 +5849,8 @@
       <c r="AO9" s="10"/>
     </row>
     <row r="10" spans="1:41" ht="14.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="28" t="s">
         <v>26</v>
       </c>
@@ -5893,8 +5895,8 @@
       <c r="AO10" s="10"/>
     </row>
     <row r="11" spans="1:41" ht="14.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="28" t="s">
         <v>27</v>
       </c>
@@ -5939,8 +5941,8 @@
       <c r="AO11" s="10"/>
     </row>
     <row r="12" spans="1:41" ht="14.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="28" t="s">
         <v>28</v>
       </c>
@@ -5983,8 +5985,8 @@
       <c r="AO12" s="10"/>
     </row>
     <row r="13" spans="1:41" ht="14.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="34" t="s">
         <v>29</v>
       </c>
@@ -6027,8 +6029,8 @@
       <c r="AO13" s="10"/>
     </row>
     <row r="14" spans="1:41" ht="14.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="96"/>
       <c r="D14" s="21" t="s">
         <v>30</v>
       </c>
@@ -6070,8 +6072,8 @@
       <c r="AO14" s="10"/>
     </row>
     <row r="15" spans="1:41" ht="14.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="20" t="s">
         <v>31</v>
       </c>
@@ -6116,7 +6118,7 @@
       <c r="AO15" s="10"/>
     </row>
     <row r="16" spans="1:41" ht="14.25">
-      <c r="A16" s="97"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
@@ -6162,8 +6164,8 @@
       <c r="AO16" s="10"/>
     </row>
     <row r="17" spans="1:41" ht="14.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="93" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="36" t="s">
@@ -6209,8 +6211,8 @@
       <c r="AO17" s="10"/>
     </row>
     <row r="18" spans="1:41" ht="14.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="29" t="s">
         <v>39</v>
       </c>
@@ -6255,8 +6257,8 @@
       <c r="AO18" s="10"/>
     </row>
     <row r="19" spans="1:41" ht="14.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="38" t="s">
         <v>41</v>
       </c>
@@ -6300,8 +6302,8 @@
       <c r="AO19" s="10"/>
     </row>
     <row r="20" spans="1:41" ht="14.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="94" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="93" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="29" t="s">
@@ -6344,8 +6346,8 @@
       <c r="AO20" s="10"/>
     </row>
     <row r="21" spans="1:41" ht="14.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="28" t="s">
         <v>45</v>
       </c>
@@ -6386,8 +6388,8 @@
       <c r="AO21" s="10"/>
     </row>
     <row r="22" spans="1:41" ht="14.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="29" t="s">
         <v>23</v>
       </c>
@@ -6431,8 +6433,8 @@
       <c r="AO22" s="10"/>
     </row>
     <row r="23" spans="1:41" ht="14.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="91"/>
+      <c r="B23" s="99" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -6480,8 +6482,8 @@
       <c r="AO23" s="10"/>
     </row>
     <row r="24" spans="1:41" ht="14.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="93"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="36" t="s">
         <v>50</v>
       </c>
@@ -6527,8 +6529,8 @@
       <c r="AO24" s="10"/>
     </row>
     <row r="25" spans="1:41" ht="14.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="36" t="s">
         <v>52</v>
       </c>
@@ -6574,8 +6576,8 @@
       <c r="AO25" s="10"/>
     </row>
     <row r="26" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="94" t="s">
+      <c r="A26" s="91"/>
+      <c r="B26" s="93" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -6623,8 +6625,8 @@
       <c r="AO26" s="10"/>
     </row>
     <row r="27" spans="1:41" ht="15">
-      <c r="A27" s="97"/>
-      <c r="B27" s="93"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="43" t="s">
         <v>56</v>
       </c>
@@ -6670,7 +6672,7 @@
       <c r="AO27" s="10"/>
     </row>
     <row r="28" spans="1:41" ht="14.25">
-      <c r="A28" s="98"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="44" t="s">
         <v>57</v>
       </c>
@@ -6724,10 +6726,10 @@
       <c r="AO28" s="10"/>
     </row>
     <row r="29" spans="1:41" ht="15">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="95" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="47" t="s">
@@ -6775,8 +6777,8 @@
       <c r="AO29" s="10"/>
     </row>
     <row r="30" spans="1:41" ht="14.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="28" t="s">
         <v>63</v>
       </c>
@@ -6822,8 +6824,8 @@
       <c r="AO30" s="10"/>
     </row>
     <row r="31" spans="1:41" ht="14.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="36" t="s">
         <v>64</v>
       </c>
@@ -6868,8 +6870,8 @@
       <c r="AO31" s="10"/>
     </row>
     <row r="32" spans="1:41" ht="14.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="36" t="s">
         <v>65</v>
       </c>
@@ -6915,8 +6917,8 @@
       <c r="AO32" s="10"/>
     </row>
     <row r="33" spans="1:41" ht="14.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="28" t="s">
         <v>66</v>
       </c>
@@ -6962,8 +6964,8 @@
       <c r="AO33" s="10"/>
     </row>
     <row r="34" spans="1:41" ht="14.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="20" t="s">
         <v>67</v>
       </c>
@@ -7009,8 +7011,8 @@
       <c r="AO34" s="10"/>
     </row>
     <row r="35" spans="1:41" ht="14.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="94" t="s">
+      <c r="A35" s="91"/>
+      <c r="B35" s="93" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="29" t="s">
@@ -7056,8 +7058,8 @@
       <c r="AO35" s="10"/>
     </row>
     <row r="36" spans="1:41" ht="15">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="49" t="s">
         <v>69</v>
       </c>
@@ -7098,10 +7100,10 @@
       <c r="AO36" s="10"/>
     </row>
     <row r="37" spans="1:41" ht="14.25">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="20" t="s">
@@ -7150,8 +7152,8 @@
       <c r="AO37" s="10"/>
     </row>
     <row r="38" spans="1:41" ht="14.25">
-      <c r="A38" s="97"/>
-      <c r="B38" s="93"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="29" t="s">
         <v>20</v>
       </c>
@@ -7199,8 +7201,8 @@
       <c r="AO38" s="10"/>
     </row>
     <row r="39" spans="1:41" ht="14.25">
-      <c r="A39" s="97"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="52" t="s">
         <v>73</v>
       </c>
@@ -7246,8 +7248,8 @@
       <c r="AO39" s="10"/>
     </row>
     <row r="40" spans="1:41" ht="14.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="93"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="20" t="s">
         <v>16</v>
       </c>
@@ -7295,8 +7297,8 @@
       <c r="AO40" s="10"/>
     </row>
     <row r="41" spans="1:41" ht="14.25">
-      <c r="A41" s="97"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="20" t="s">
         <v>74</v>
       </c>
@@ -7344,8 +7346,8 @@
       <c r="AO41" s="10"/>
     </row>
     <row r="42" spans="1:41" ht="14.25">
-      <c r="A42" s="97"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="20" t="s">
         <v>76</v>
       </c>
@@ -7391,8 +7393,8 @@
       <c r="AO42" s="10"/>
     </row>
     <row r="43" spans="1:41" ht="14.25">
-      <c r="A43" s="97"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="20" t="s">
         <v>78</v>
       </c>
@@ -7438,8 +7440,8 @@
       <c r="AO43" s="10"/>
     </row>
     <row r="44" spans="1:41" ht="14.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="93"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="54" t="s">
         <v>52</v>
       </c>
@@ -7487,8 +7489,8 @@
       <c r="AO44" s="10"/>
     </row>
     <row r="45" spans="1:41" ht="14.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="52" t="s">
         <v>52</v>
       </c>
@@ -7536,8 +7538,8 @@
       <c r="AO45" s="10"/>
     </row>
     <row r="46" spans="1:41" ht="14.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="20" t="s">
         <v>81</v>
       </c>
@@ -7585,8 +7587,8 @@
       <c r="AO46" s="10"/>
     </row>
     <row r="47" spans="1:41" ht="14.25">
-      <c r="A47" s="97"/>
-      <c r="B47" s="93"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="20" t="s">
         <v>29</v>
       </c>
@@ -7634,8 +7636,8 @@
       <c r="AO47" s="10"/>
     </row>
     <row r="48" spans="1:41" ht="14.25">
-      <c r="A48" s="97"/>
-      <c r="B48" s="93"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="20" t="s">
         <v>31</v>
       </c>
@@ -7683,8 +7685,8 @@
       <c r="AO48" s="10"/>
     </row>
     <row r="49" spans="1:41" ht="14.25">
-      <c r="A49" s="97"/>
-      <c r="B49" s="93"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="20" t="s">
         <v>82</v>
       </c>
@@ -7728,8 +7730,8 @@
       <c r="AO49" s="10"/>
     </row>
     <row r="50" spans="1:41" ht="14.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="94" t="s">
+      <c r="A50" s="91"/>
+      <c r="B50" s="93" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="36" t="s">
@@ -7777,8 +7779,8 @@
       <c r="AO50" s="10"/>
     </row>
     <row r="51" spans="1:41" ht="14.25">
-      <c r="A51" s="97"/>
-      <c r="B51" s="93"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="36" t="s">
         <v>85</v>
       </c>
@@ -7824,8 +7826,8 @@
       <c r="AO51" s="10"/>
     </row>
     <row r="52" spans="1:41" ht="14.25">
-      <c r="A52" s="97"/>
-      <c r="B52" s="93"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="36" t="s">
         <v>86</v>
       </c>
@@ -7871,8 +7873,8 @@
       <c r="AO52" s="10"/>
     </row>
     <row r="53" spans="1:41" ht="14.25">
-      <c r="A53" s="97"/>
-      <c r="B53" s="93"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="36" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +7920,8 @@
       <c r="AO53" s="10"/>
     </row>
     <row r="54" spans="1:41" ht="14.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="93"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="36" t="s">
         <v>88</v>
       </c>
@@ -7965,8 +7967,8 @@
       <c r="AO54" s="10"/>
     </row>
     <row r="55" spans="1:41" ht="14.25">
-      <c r="A55" s="97"/>
-      <c r="B55" s="94" t="s">
+      <c r="A55" s="91"/>
+      <c r="B55" s="93" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="29" t="s">
@@ -8014,8 +8016,8 @@
       <c r="AO55" s="10"/>
     </row>
     <row r="56" spans="1:41" ht="14.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="93"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="28" t="s">
         <v>45</v>
       </c>
@@ -8059,7 +8061,7 @@
       <c r="AO56" s="10"/>
     </row>
     <row r="57" spans="1:41" ht="14.25">
-      <c r="A57" s="97"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="35" t="s">
         <v>57</v>
       </c>
@@ -8106,8 +8108,8 @@
       <c r="AO57" s="10"/>
     </row>
     <row r="58" spans="1:41" ht="14.25">
-      <c r="A58" s="97"/>
-      <c r="B58" s="94" t="s">
+      <c r="A58" s="91"/>
+      <c r="B58" s="93" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -8155,8 +8157,8 @@
       <c r="AO58" s="10"/>
     </row>
     <row r="59" spans="1:41" ht="14.25">
-      <c r="A59" s="97"/>
-      <c r="B59" s="93"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="20" t="s">
         <v>50</v>
       </c>
@@ -8200,8 +8202,8 @@
       <c r="AO59" s="10"/>
     </row>
     <row r="60" spans="1:41" ht="15">
-      <c r="A60" s="97"/>
-      <c r="B60" s="94" t="s">
+      <c r="A60" s="91"/>
+      <c r="B60" s="93" t="s">
         <v>54</v>
       </c>
       <c r="C60" s="43" t="s">
@@ -8248,8 +8250,8 @@
       <c r="AO60" s="10"/>
     </row>
     <row r="61" spans="1:41" ht="15">
-      <c r="A61" s="98"/>
-      <c r="B61" s="93"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="43" t="s">
         <v>56</v>
       </c>
@@ -8294,7 +8296,7 @@
       <c r="AO61" s="10"/>
     </row>
     <row r="62" spans="1:41" ht="15">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="90" t="s">
         <v>91</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -8343,7 +8345,7 @@
       <c r="AO62" s="10"/>
     </row>
     <row r="63" spans="1:41" ht="15">
-      <c r="A63" s="97"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="57" t="s">
         <v>91</v>
       </c>
@@ -8390,7 +8392,7 @@
       <c r="AO63" s="10"/>
     </row>
     <row r="64" spans="1:41" ht="15">
-      <c r="A64" s="97"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="57" t="s">
         <v>91</v>
       </c>
@@ -8437,7 +8439,7 @@
       <c r="AO64" s="10"/>
     </row>
     <row r="65" spans="1:41" ht="14.25">
-      <c r="A65" s="98"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="59" t="s">
         <v>91</v>
       </c>
@@ -48230,6 +48232,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="A37:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -48240,13 +48249,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E1:E989">
@@ -48454,8 +48456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FAAD86-D1B7-4209-A4F9-B0C4F7D9F327}">
   <dimension ref="C5:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
